--- a/Pokemon_Server/data/pkm_conquest_stats.xlsx
+++ b/Pokemon_Server/data/pkm_conquest_stats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>energy</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>conquest_stat_id</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>FALSE</t>
   </si>
 </sst>
 </file>
@@ -445,8 +451,8 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2">
-        <v>1</v>
+      <c r="D2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -459,8 +465,8 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3">
-        <v>1</v>
+      <c r="D3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -473,8 +479,8 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4">
-        <v>1</v>
+      <c r="D4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -487,8 +493,8 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5">
-        <v>1</v>
+      <c r="D5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -501,8 +507,8 @@
       <c r="C6" t="s">
         <v>2</v>
       </c>
-      <c r="D6">
-        <v>0</v>
+      <c r="D6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -515,8 +521,8 @@
       <c r="C7" t="s">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>0</v>
+      <c r="D7" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
